--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -119,13 +116,16 @@
   </si>
   <si>
     <t>Repayment</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -248,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,15 +575,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6">
         <v>42064</v>
@@ -580,10 +591,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -596,38 +607,37 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9213.24</v>
+        <v>9163.24</v>
       </c>
       <c r="F2" s="7">
         <v>849.4</v>
@@ -717,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1385,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,44 +1414,46 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>6350</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8">
         <v>42064</v>
@@ -1464,24 +1476,24 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>10000</v>
+      <c r="J2" s="10">
+        <v>9163.24</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>6354</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8">
         <v>42036</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7">
         <v>937.72</v>
@@ -1498,18 +1510,18 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="J3" s="10">
+        <v>4163.24</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>691</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8">
         <v>42005</v>
@@ -1535,8 +1547,8 @@
       <c r="J4" s="9">
         <v>5000</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
